--- a/biology/Médecine/Sage_Femme_(film)/Sage_Femme_(film).xlsx
+++ b/biology/Médecine/Sage_Femme_(film)/Sage_Femme_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sage Femme est un film français réalisé par Martin Provost, sorti en 2017.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Claire, une femme de quarante-neuf ans qui vit seule, est sage-femme dans une maternité dont la fermeture est programmée. Béatrice a été la maîtresse de son père, qui s'était suicidé quelque temps après le brusque départ de Béatrice. Après trente ans de silence, les deux femmes vont se retrouver. Malgré son âge et sa santé précaire, Béatrice est fantasque et totalement immature. Claire, quant à elle, mène une vie rangée de bon Samaritain entre son hôpital et son appartement de Mantes-la-Jolie. Elle a un fils, Simon, qui fait des études de médecine, de même que sa copine enceinte. Claire commence à nouer une liaison avec Paul, un camionneur cinquantenaire. Expulsée de l'appartement où elle était hébergée, l'extravagante Béatrice s'installe chez Claire.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : Sage Femme
 Titre de travail : La Sage Femme
@@ -567,7 +583,7 @@
 Genre : comédie dramatique
 Format : couleur
 Numéro de visa : 144449
-Budget : 6,8 millions €[1]
+Budget : 6,8 millions €
 Durée : 117 minutes
 Dates de sortie :
 Allemagne : 14 février 2017 (Berlinale)
@@ -601,7 +617,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Catherine Frot : Claire Breton, sage-femme
@@ -646,13 +664,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film est né de l'envie du réalisateur de rendre hommage à la maïeuticienne qui lui a sauvé la vie lors de sa naissance[2].
-Tournage
-Le film se caractérise par une certaine prouesse technique. En effet, les scènes d'accouchements filmées sont réelles, ce qui n'a pas été sans complications. Le réalisateur voulait apporter plus de réalisme : « Dans les films, trop souvent, les bébés qui naissent sont énormes et trop bien portants, ça sonne très faux ! Je voulais filmer la vie en vrai, l’essence même de la vie, ce par quoi nous sommes tous passés et non sa représentation plus ou moins édulcorée »[2].
-Les scènes furent tournées en Belgique, du fait de la loi française qui interdit le travail aux enfants de moins de trois mois. Toutefois, la réalisation de ces scènes fut complexe. Il a fallu trouver des femmes qui acceptent qu'on filme leur accouchement, ainsi que des maternités qui laissent entrer des équipes de tournage[2].
-Pour sa préparation au rôle, et sur invitation du réalisateur, Catherine Frot a assisté à plusieurs accouchements pour se fondre dans le personnage : « j’ai d’abord demandé à assister à des accouchements afin de savoir si je pourrais éventuellement avoir des gestes appropriés. J’ai réalisé que tout ça était finalement très naturel, très normal ». Par la suite, l'actrice rencontra une ancienne sage-femme qui lui donna des cours particuliers à l'aide de mannequin[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est né de l'envie du réalisateur de rendre hommage à la maïeuticienne qui lui a sauvé la vie lors de sa naissance.
 </t>
         </is>
       </c>
@@ -678,15 +694,93 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film se caractérise par une certaine prouesse technique. En effet, les scènes d'accouchements filmées sont réelles, ce qui n'a pas été sans complications. Le réalisateur voulait apporter plus de réalisme : « Dans les films, trop souvent, les bébés qui naissent sont énormes et trop bien portants, ça sonne très faux ! Je voulais filmer la vie en vrai, l’essence même de la vie, ce par quoi nous sommes tous passés et non sa représentation plus ou moins édulcorée ».
+Les scènes furent tournées en Belgique, du fait de la loi française qui interdit le travail aux enfants de moins de trois mois. Toutefois, la réalisation de ces scènes fut complexe. Il a fallu trouver des femmes qui acceptent qu'on filme leur accouchement, ainsi que des maternités qui laissent entrer des équipes de tournage.
+Pour sa préparation au rôle, et sur invitation du réalisateur, Catherine Frot a assisté à plusieurs accouchements pour se fondre dans le personnage : « j’ai d’abord demandé à assister à des accouchements afin de savoir si je pourrais éventuellement avoir des gestes appropriés. J’ai réalisé que tout ça était finalement très naturel, très normal ». Par la suite, l'actrice rencontra une ancienne sage-femme qui lui donna des cours particuliers à l'aide de mannequin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sage_Femme_(film)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sage_Femme_(film)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Récompense
-Festival du film de Cabourg 2017 : Swann d'or du meilleur film
-Sélection
-Berlinale 2017 : hors compétition</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Récompense</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Festival du film de Cabourg 2017 : Swann d'or du meilleur film</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sage_Femme_(film)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sage_Femme_(film)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Berlinale 2017 : hors compétition</t>
         </is>
       </c>
     </row>
